--- a/data/trans_dic/P36$otros-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,07</t>
+          <t>0,77; 3,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,91</t>
+          <t>0,21; 2,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,08</t>
+          <t>1,49; 4,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,32</t>
+          <t>0,38; 2,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,64</t>
+          <t>0,46; 2,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,37</t>
+          <t>3,11; 7,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,13</t>
+          <t>0,69; 2,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,92</t>
+          <t>0,55; 1,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,33</t>
+          <t>2,62; 5,25</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,33</t>
+          <t>0,62; 2,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,83</t>
+          <t>0,3; 1,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,2</t>
+          <t>2,71; 6,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,09</t>
+          <t>0,44; 1,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,81</t>
+          <t>0,85; 3,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,07</t>
+          <t>2,06; 5,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,84</t>
+          <t>0,65; 1,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,92</t>
+          <t>0,68; 1,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,01</t>
+          <t>2,73; 5,06</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,19</t>
+          <t>1,51; 4,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,69</t>
+          <t>0,59; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,95</t>
+          <t>2,12; 4,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,63</t>
+          <t>0,31; 1,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,01</t>
+          <t>0,26; 1,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,78</t>
+          <t>1,98; 4,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,41</t>
+          <t>1,09; 2,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,79</t>
+          <t>0,59; 1,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,38</t>
+          <t>2,32; 4,35</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,0</t>
+          <t>0,69; 3,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,57</t>
+          <t>0,16; 1,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,4</t>
+          <t>3,87; 7,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,91</t>
+          <t>0,6; 2,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,87</t>
+          <t>0,69; 3,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,46</t>
+          <t>3,22; 6,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,57</t>
+          <t>0,88; 2,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,77</t>
+          <t>0,55; 1,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,62</t>
+          <t>3,93; 6,54</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,43</t>
+          <t>0,64; 3,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,8</t>
+          <t>0,22; 1,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,47</t>
+          <t>2,45; 6,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,55</t>
+          <t>0,53; 3,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,75</t>
+          <t>0,46; 2,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,64</t>
+          <t>2,39; 6,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,66</t>
+          <t>0,86; 2,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,72</t>
+          <t>0,47; 1,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,71</t>
+          <t>2,79; 5,63</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,33</t>
+          <t>0,99; 4,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,93</t>
+          <t>0,32; 3,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,48</t>
+          <t>2,43; 6,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,48</t>
+          <t>2,47; 6,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,35</t>
+          <t>0,25; 1,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,24</t>
+          <t>2,95; 7,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,78</t>
+          <t>2,24; 4,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,0</t>
+          <t>0,42; 2,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,1</t>
+          <t>3,06; 6,31</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,86</t>
+          <t>0,46; 5,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,56</t>
+          <t>0,9; 6,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,64</t>
+          <t>2,47; 6,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,62</t>
+          <t>1,62; 5,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,28</t>
+          <t>2,37; 7,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,49</t>
+          <t>1,57; 4,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,07</t>
+          <t>0,67; 3,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,27</t>
+          <t>2,93; 6,37</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,33</t>
+          <t>1,41; 2,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,48</t>
+          <t>0,7; 1,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,84</t>
+          <t>3,37; 4,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,13</t>
+          <t>1,23; 2,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,55</t>
+          <t>0,82; 1,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,56; 4,96</t>
+          <t>3,53; 4,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,05</t>
+          <t>1,45; 2,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,37</t>
+          <t>0,88; 1,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,59; 4,62</t>
+          <t>3,63; 4,61</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, otros alimentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7794</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3825</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12105</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4834</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5109</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19514</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12628</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8934</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31619</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3775; 14827</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>949; 9599</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6265; 20008</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1790; 10962</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1984; 11242</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12295; 29052</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6660; 21546</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4829; 16937</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21298; 42763</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9114</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5636</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24504</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6540</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9973</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18335</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15654</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15609</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>42839</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4563; 16786</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2043; 11333</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16018; 35721</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2726; 12238</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5207; 18635</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11627; 29523</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8794; 23575</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8751; 23898</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31517; 58447</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16808</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8753</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21982</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5528</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21288</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22053</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14281</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43270</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9574; 26197</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4033; 19231</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14174; 32589</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2122; 11623</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1813; 13033</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13114; 31916</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14407; 33143</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8201; 23814</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30855; 57830</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7858</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3438</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>34725</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7990</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9462</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31023</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15847</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12900</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>65748</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3559; 15784</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>980; 10494</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24922; 49793</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3100; 14843</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4256; 19170</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20879; 43806</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9073; 25277</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6809; 23370</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>50791; 84501</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6183</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19176</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6361</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5402</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20376</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12545</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8339</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>39552</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2467; 13351</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>939; 7894</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11715; 30662</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2152; 12223</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2075; 12085</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11867; 31591</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6772; 20892</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4075; 15583</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>27241; 54836</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6673</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3716</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13859</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14593</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2843</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17837</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21266</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6559</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>31696</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2900; 13435</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>994; 9484</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8124; 22411</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8459; 22300</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>887; 6883</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11162; 28135</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14236; 31631</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2783; 13277</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>21759; 44933</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4924</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7642</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>10557</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9968</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>18076</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>14892</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9721</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>28633</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>955; 11552</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2232; 16178</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6298; 17839</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5401; 18679</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6291</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9453; 28687</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8527; 25101</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4297; 21451</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>19163; 41664</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>59356</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>35946</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>136908</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>55531</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>40396</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>146449</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>114886</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>76342</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>283357</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>46143; 76136</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>24101; 52927</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>114086; 161648</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>41555; 70627</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>29013; 54551</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>125167; 171338</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>96628; 138150</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>61548; 96497</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>251277; 319791</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>